--- a/bilacak.xlsx
+++ b/bilacak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Produktif\perkuliahan\Semester VII\TA\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666252A8-1ECD-4D1F-B0A0-E6204E7AC5D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17722F4-4974-458C-B5D9-6E04A4939F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{728AC4A5-9AE6-41B8-B479-746A17E6EDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +60,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -73,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B28355-89FE-490C-BC4C-07087FFDDFE3}">
-  <dimension ref="A1:OJ8"/>
+  <dimension ref="A1:OJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="NT1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="NV12" sqref="NV12"/>
+    <sheetView tabSelected="1" topLeftCell="NC1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="NM10" sqref="NM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2948,7 @@
         <v>19</v>
       </c>
       <c r="AT3" s="1">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AU3" s="1">
         <v>28</v>
@@ -10014,6 +10021,2410 @@
       </c>
       <c r="OJ8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:400" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1">
+        <v>73</v>
+      </c>
+      <c r="H9" s="1">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1">
+        <v>99</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1">
+        <v>78</v>
+      </c>
+      <c r="M9" s="1">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1">
+        <v>79</v>
+      </c>
+      <c r="O9" s="1">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>46</v>
+      </c>
+      <c r="T9" s="1">
+        <v>48</v>
+      </c>
+      <c r="U9" s="1">
+        <v>77</v>
+      </c>
+      <c r="V9" s="1">
+        <v>83</v>
+      </c>
+      <c r="W9" s="1">
+        <v>58</v>
+      </c>
+      <c r="X9" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>98</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>41</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>28</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>96</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>95</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>19</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>51</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>17</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>94</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>70</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>50</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>37</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>23</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>93</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>23</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>35</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>67</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>91</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>25</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>43</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>69</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>55</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>12</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>86</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>68</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>62</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>59</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>54</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>80</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>10</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>63</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>89</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>74</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>44</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>53</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>92</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>61</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>65</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>88</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>49</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>34</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>52</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>56</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>18</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>81</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>30</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>26</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>27</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>87</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>33</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>64</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>76</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>72</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>29</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>60</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>38</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>47</v>
+      </c>
+      <c r="CW9" s="2">
+        <v>90</v>
+      </c>
+      <c r="CX9" s="2">
+        <v>7</v>
+      </c>
+      <c r="CY9" s="2">
+        <v>66</v>
+      </c>
+      <c r="CZ9" s="2">
+        <v>13</v>
+      </c>
+      <c r="DA9" s="2">
+        <v>11</v>
+      </c>
+      <c r="DB9" s="2">
+        <v>40</v>
+      </c>
+      <c r="DC9" s="2">
+        <v>73</v>
+      </c>
+      <c r="DD9" s="2">
+        <v>85</v>
+      </c>
+      <c r="DE9" s="2">
+        <v>99</v>
+      </c>
+      <c r="DF9" s="2">
+        <v>8</v>
+      </c>
+      <c r="DG9" s="2">
+        <v>39</v>
+      </c>
+      <c r="DH9" s="2">
+        <v>78</v>
+      </c>
+      <c r="DI9" s="2">
+        <v>36</v>
+      </c>
+      <c r="DJ9" s="2">
+        <v>79</v>
+      </c>
+      <c r="DK9" s="2">
+        <v>61</v>
+      </c>
+      <c r="DL9" s="2">
+        <v>31</v>
+      </c>
+      <c r="DM9" s="2">
+        <v>6</v>
+      </c>
+      <c r="DN9" s="2">
+        <v>4</v>
+      </c>
+      <c r="DO9" s="2">
+        <v>46</v>
+      </c>
+      <c r="DP9" s="2">
+        <v>48</v>
+      </c>
+      <c r="DQ9" s="2">
+        <v>77</v>
+      </c>
+      <c r="DR9" s="2">
+        <v>83</v>
+      </c>
+      <c r="DS9" s="2">
+        <v>58</v>
+      </c>
+      <c r="DT9" s="2">
+        <v>57</v>
+      </c>
+      <c r="DU9" s="2">
+        <v>100</v>
+      </c>
+      <c r="DV9" s="2">
+        <v>20</v>
+      </c>
+      <c r="DW9" s="2">
+        <v>4</v>
+      </c>
+      <c r="DX9" s="2">
+        <v>98</v>
+      </c>
+      <c r="DY9" s="2">
+        <v>45</v>
+      </c>
+      <c r="DZ9" s="2">
+        <v>9</v>
+      </c>
+      <c r="EA9" s="2">
+        <v>24</v>
+      </c>
+      <c r="EB9" s="2">
+        <v>41</v>
+      </c>
+      <c r="EC9" s="2">
+        <v>71</v>
+      </c>
+      <c r="ED9" s="2">
+        <v>1</v>
+      </c>
+      <c r="EE9" s="2">
+        <v>28</v>
+      </c>
+      <c r="EF9" s="2">
+        <v>96</v>
+      </c>
+      <c r="EG9" s="2">
+        <v>95</v>
+      </c>
+      <c r="EH9" s="2">
+        <v>19</v>
+      </c>
+      <c r="EI9" s="2">
+        <v>51</v>
+      </c>
+      <c r="EJ9" s="2">
+        <v>21</v>
+      </c>
+      <c r="EK9" s="2">
+        <v>14</v>
+      </c>
+      <c r="EL9" s="2">
+        <v>17</v>
+      </c>
+      <c r="EM9" s="2">
+        <v>42</v>
+      </c>
+      <c r="EN9" s="2">
+        <v>22</v>
+      </c>
+      <c r="EO9" s="2">
+        <v>5</v>
+      </c>
+      <c r="EP9" s="2">
+        <v>3</v>
+      </c>
+      <c r="EQ9" s="2">
+        <v>97</v>
+      </c>
+      <c r="ER9" s="2">
+        <v>94</v>
+      </c>
+      <c r="ES9" s="2">
+        <v>70</v>
+      </c>
+      <c r="ET9" s="2">
+        <v>50</v>
+      </c>
+      <c r="EU9" s="2">
+        <v>37</v>
+      </c>
+      <c r="EV9" s="2">
+        <v>23</v>
+      </c>
+      <c r="EW9" s="2">
+        <v>93</v>
+      </c>
+      <c r="EX9" s="2">
+        <v>23</v>
+      </c>
+      <c r="EY9" s="2">
+        <v>15</v>
+      </c>
+      <c r="EZ9" s="2">
+        <v>35</v>
+      </c>
+      <c r="FA9" s="2">
+        <v>67</v>
+      </c>
+      <c r="FB9" s="2">
+        <v>91</v>
+      </c>
+      <c r="FC9" s="2">
+        <v>25</v>
+      </c>
+      <c r="FD9" s="2">
+        <v>43</v>
+      </c>
+      <c r="FE9" s="2">
+        <v>69</v>
+      </c>
+      <c r="FF9" s="2">
+        <v>55</v>
+      </c>
+      <c r="FG9" s="2">
+        <v>12</v>
+      </c>
+      <c r="FH9" s="2">
+        <v>86</v>
+      </c>
+      <c r="FI9" s="2">
+        <v>68</v>
+      </c>
+      <c r="FJ9" s="2">
+        <v>62</v>
+      </c>
+      <c r="FK9" s="2">
+        <v>59</v>
+      </c>
+      <c r="FL9" s="2">
+        <v>54</v>
+      </c>
+      <c r="FM9" s="2">
+        <v>80</v>
+      </c>
+      <c r="FN9" s="2">
+        <v>10</v>
+      </c>
+      <c r="FO9" s="2">
+        <v>63</v>
+      </c>
+      <c r="FP9" s="2">
+        <v>89</v>
+      </c>
+      <c r="FQ9" s="2">
+        <v>74</v>
+      </c>
+      <c r="FR9" s="2">
+        <v>44</v>
+      </c>
+      <c r="FS9" s="2">
+        <v>53</v>
+      </c>
+      <c r="FT9" s="2">
+        <v>75</v>
+      </c>
+      <c r="FU9" s="2">
+        <v>92</v>
+      </c>
+      <c r="FV9" s="2">
+        <v>61</v>
+      </c>
+      <c r="FW9" s="2">
+        <v>65</v>
+      </c>
+      <c r="FX9" s="2">
+        <v>88</v>
+      </c>
+      <c r="FY9" s="2">
+        <v>49</v>
+      </c>
+      <c r="FZ9" s="2">
+        <v>34</v>
+      </c>
+      <c r="GA9" s="2">
+        <v>82</v>
+      </c>
+      <c r="GB9" s="2">
+        <v>52</v>
+      </c>
+      <c r="GC9" s="2">
+        <v>56</v>
+      </c>
+      <c r="GD9" s="2">
+        <v>2</v>
+      </c>
+      <c r="GE9" s="2">
+        <v>18</v>
+      </c>
+      <c r="GF9" s="2">
+        <v>81</v>
+      </c>
+      <c r="GG9" s="2">
+        <v>30</v>
+      </c>
+      <c r="GH9" s="2">
+        <v>26</v>
+      </c>
+      <c r="GI9" s="2">
+        <v>27</v>
+      </c>
+      <c r="GJ9" s="2">
+        <v>87</v>
+      </c>
+      <c r="GK9" s="2">
+        <v>33</v>
+      </c>
+      <c r="GL9" s="2">
+        <v>64</v>
+      </c>
+      <c r="GM9" s="2">
+        <v>76</v>
+      </c>
+      <c r="GN9" s="2">
+        <v>72</v>
+      </c>
+      <c r="GO9" s="2">
+        <v>29</v>
+      </c>
+      <c r="GP9" s="2">
+        <v>60</v>
+      </c>
+      <c r="GQ9" s="2">
+        <v>38</v>
+      </c>
+      <c r="GR9" s="2">
+        <v>47</v>
+      </c>
+      <c r="GS9" s="3">
+        <v>90</v>
+      </c>
+      <c r="GT9" s="3">
+        <v>7</v>
+      </c>
+      <c r="GU9" s="3">
+        <v>66</v>
+      </c>
+      <c r="GV9" s="3">
+        <v>13</v>
+      </c>
+      <c r="GW9" s="3">
+        <v>11</v>
+      </c>
+      <c r="GX9" s="3">
+        <v>40</v>
+      </c>
+      <c r="GY9" s="3">
+        <v>73</v>
+      </c>
+      <c r="GZ9" s="3">
+        <v>85</v>
+      </c>
+      <c r="HA9" s="3">
+        <v>99</v>
+      </c>
+      <c r="HB9" s="3">
+        <v>8</v>
+      </c>
+      <c r="HC9" s="3">
+        <v>39</v>
+      </c>
+      <c r="HD9" s="3">
+        <v>78</v>
+      </c>
+      <c r="HE9" s="3">
+        <v>36</v>
+      </c>
+      <c r="HF9" s="3">
+        <v>79</v>
+      </c>
+      <c r="HG9" s="3">
+        <v>61</v>
+      </c>
+      <c r="HH9" s="3">
+        <v>31</v>
+      </c>
+      <c r="HI9" s="3">
+        <v>6</v>
+      </c>
+      <c r="HJ9" s="3">
+        <v>4</v>
+      </c>
+      <c r="HK9" s="3">
+        <v>46</v>
+      </c>
+      <c r="HL9" s="3">
+        <v>48</v>
+      </c>
+      <c r="HM9" s="3">
+        <v>77</v>
+      </c>
+      <c r="HN9" s="3">
+        <v>83</v>
+      </c>
+      <c r="HO9" s="3">
+        <v>58</v>
+      </c>
+      <c r="HP9" s="3">
+        <v>57</v>
+      </c>
+      <c r="HQ9" s="3">
+        <v>100</v>
+      </c>
+      <c r="HR9" s="3">
+        <v>20</v>
+      </c>
+      <c r="HS9" s="3">
+        <v>4</v>
+      </c>
+      <c r="HT9" s="3">
+        <v>98</v>
+      </c>
+      <c r="HU9" s="3">
+        <v>45</v>
+      </c>
+      <c r="HV9" s="3">
+        <v>9</v>
+      </c>
+      <c r="HW9" s="3">
+        <v>24</v>
+      </c>
+      <c r="HX9" s="3">
+        <v>41</v>
+      </c>
+      <c r="HY9" s="3">
+        <v>71</v>
+      </c>
+      <c r="HZ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="IA9" s="3">
+        <v>28</v>
+      </c>
+      <c r="IB9" s="3">
+        <v>96</v>
+      </c>
+      <c r="IC9" s="3">
+        <v>95</v>
+      </c>
+      <c r="ID9" s="3">
+        <v>19</v>
+      </c>
+      <c r="IE9" s="3">
+        <v>51</v>
+      </c>
+      <c r="IF9" s="3">
+        <v>21</v>
+      </c>
+      <c r="IG9" s="3">
+        <v>14</v>
+      </c>
+      <c r="IH9" s="3">
+        <v>17</v>
+      </c>
+      <c r="II9" s="3">
+        <v>42</v>
+      </c>
+      <c r="IJ9" s="3">
+        <v>22</v>
+      </c>
+      <c r="IK9" s="3">
+        <v>5</v>
+      </c>
+      <c r="IL9" s="3">
+        <v>3</v>
+      </c>
+      <c r="IM9" s="3">
+        <v>97</v>
+      </c>
+      <c r="IN9" s="3">
+        <v>94</v>
+      </c>
+      <c r="IO9" s="3">
+        <v>70</v>
+      </c>
+      <c r="IP9" s="3">
+        <v>50</v>
+      </c>
+      <c r="IQ9" s="3">
+        <v>37</v>
+      </c>
+      <c r="IR9" s="3">
+        <v>23</v>
+      </c>
+      <c r="IS9" s="3">
+        <v>93</v>
+      </c>
+      <c r="IT9" s="3">
+        <v>23</v>
+      </c>
+      <c r="IU9" s="3">
+        <v>15</v>
+      </c>
+      <c r="IV9" s="3">
+        <v>35</v>
+      </c>
+      <c r="IW9" s="3">
+        <v>67</v>
+      </c>
+      <c r="IX9" s="3">
+        <v>91</v>
+      </c>
+      <c r="IY9" s="3">
+        <v>25</v>
+      </c>
+      <c r="IZ9" s="3">
+        <v>43</v>
+      </c>
+      <c r="JA9" s="3">
+        <v>69</v>
+      </c>
+      <c r="JB9" s="3">
+        <v>55</v>
+      </c>
+      <c r="JC9" s="3">
+        <v>12</v>
+      </c>
+      <c r="JD9" s="3">
+        <v>86</v>
+      </c>
+      <c r="JE9" s="3">
+        <v>68</v>
+      </c>
+      <c r="JF9" s="3">
+        <v>62</v>
+      </c>
+      <c r="JG9" s="3">
+        <v>59</v>
+      </c>
+      <c r="JH9" s="3">
+        <v>54</v>
+      </c>
+      <c r="JI9" s="3">
+        <v>80</v>
+      </c>
+      <c r="JJ9" s="3">
+        <v>10</v>
+      </c>
+      <c r="JK9" s="3">
+        <v>63</v>
+      </c>
+      <c r="JL9" s="3">
+        <v>89</v>
+      </c>
+      <c r="JM9" s="3">
+        <v>74</v>
+      </c>
+      <c r="JN9" s="3">
+        <v>44</v>
+      </c>
+      <c r="JO9" s="3">
+        <v>53</v>
+      </c>
+      <c r="JP9" s="3">
+        <v>75</v>
+      </c>
+      <c r="JQ9" s="3">
+        <v>92</v>
+      </c>
+      <c r="JR9" s="3">
+        <v>61</v>
+      </c>
+      <c r="JS9" s="3">
+        <v>65</v>
+      </c>
+      <c r="JT9" s="3">
+        <v>88</v>
+      </c>
+      <c r="JU9" s="3">
+        <v>49</v>
+      </c>
+      <c r="JV9" s="3">
+        <v>34</v>
+      </c>
+      <c r="JW9" s="3">
+        <v>82</v>
+      </c>
+      <c r="JX9" s="3">
+        <v>52</v>
+      </c>
+      <c r="JY9" s="3">
+        <v>56</v>
+      </c>
+      <c r="JZ9" s="3">
+        <v>2</v>
+      </c>
+      <c r="KA9" s="3">
+        <v>18</v>
+      </c>
+      <c r="KB9" s="3">
+        <v>81</v>
+      </c>
+      <c r="KC9" s="3">
+        <v>30</v>
+      </c>
+      <c r="KD9" s="3">
+        <v>26</v>
+      </c>
+      <c r="KE9" s="3">
+        <v>27</v>
+      </c>
+      <c r="KF9" s="3">
+        <v>87</v>
+      </c>
+      <c r="KG9" s="3">
+        <v>33</v>
+      </c>
+      <c r="KH9" s="3">
+        <v>64</v>
+      </c>
+      <c r="KI9" s="3">
+        <v>76</v>
+      </c>
+      <c r="KJ9" s="3">
+        <v>72</v>
+      </c>
+      <c r="KK9" s="3">
+        <v>29</v>
+      </c>
+      <c r="KL9" s="3">
+        <v>60</v>
+      </c>
+      <c r="KM9" s="3">
+        <v>38</v>
+      </c>
+      <c r="KN9" s="3">
+        <v>47</v>
+      </c>
+      <c r="KO9" s="4">
+        <v>90</v>
+      </c>
+      <c r="KP9" s="4">
+        <v>7</v>
+      </c>
+      <c r="KQ9" s="4">
+        <v>66</v>
+      </c>
+      <c r="KR9" s="4">
+        <v>13</v>
+      </c>
+      <c r="KS9" s="4">
+        <v>11</v>
+      </c>
+      <c r="KT9" s="4">
+        <v>40</v>
+      </c>
+      <c r="KU9" s="4">
+        <v>73</v>
+      </c>
+      <c r="KV9" s="4">
+        <v>85</v>
+      </c>
+      <c r="KW9" s="4">
+        <v>99</v>
+      </c>
+      <c r="KX9" s="4">
+        <v>8</v>
+      </c>
+      <c r="KY9" s="4">
+        <v>39</v>
+      </c>
+      <c r="KZ9" s="4">
+        <v>78</v>
+      </c>
+      <c r="LA9" s="4">
+        <v>36</v>
+      </c>
+      <c r="LB9" s="4">
+        <v>79</v>
+      </c>
+      <c r="LC9" s="4">
+        <v>61</v>
+      </c>
+      <c r="LD9" s="4">
+        <v>31</v>
+      </c>
+      <c r="LE9" s="4">
+        <v>6</v>
+      </c>
+      <c r="LF9" s="4">
+        <v>4</v>
+      </c>
+      <c r="LG9" s="4">
+        <v>46</v>
+      </c>
+      <c r="LH9" s="4">
+        <v>48</v>
+      </c>
+      <c r="LI9" s="4">
+        <v>77</v>
+      </c>
+      <c r="LJ9" s="4">
+        <v>83</v>
+      </c>
+      <c r="LK9" s="4">
+        <v>58</v>
+      </c>
+      <c r="LL9" s="4">
+        <v>57</v>
+      </c>
+      <c r="LM9" s="4">
+        <v>100</v>
+      </c>
+      <c r="LN9" s="4">
+        <v>20</v>
+      </c>
+      <c r="LO9" s="4">
+        <v>4</v>
+      </c>
+      <c r="LP9" s="4">
+        <v>98</v>
+      </c>
+      <c r="LQ9" s="4">
+        <v>45</v>
+      </c>
+      <c r="LR9" s="4">
+        <v>9</v>
+      </c>
+      <c r="LS9" s="4">
+        <v>24</v>
+      </c>
+      <c r="LT9" s="4">
+        <v>41</v>
+      </c>
+      <c r="LU9" s="4">
+        <v>71</v>
+      </c>
+      <c r="LV9" s="4">
+        <v>1</v>
+      </c>
+      <c r="LW9" s="4">
+        <v>28</v>
+      </c>
+      <c r="LX9" s="4">
+        <v>96</v>
+      </c>
+      <c r="LY9" s="4">
+        <v>95</v>
+      </c>
+      <c r="LZ9" s="4">
+        <v>19</v>
+      </c>
+      <c r="MA9" s="4">
+        <v>51</v>
+      </c>
+      <c r="MB9" s="4">
+        <v>21</v>
+      </c>
+      <c r="MC9" s="4">
+        <v>14</v>
+      </c>
+      <c r="MD9" s="4">
+        <v>17</v>
+      </c>
+      <c r="ME9" s="4">
+        <v>42</v>
+      </c>
+      <c r="MF9" s="4">
+        <v>22</v>
+      </c>
+      <c r="MG9" s="4">
+        <v>5</v>
+      </c>
+      <c r="MH9" s="4">
+        <v>3</v>
+      </c>
+      <c r="MI9" s="4">
+        <v>97</v>
+      </c>
+      <c r="MJ9" s="4">
+        <v>94</v>
+      </c>
+      <c r="MK9" s="4">
+        <v>70</v>
+      </c>
+      <c r="ML9" s="4">
+        <v>50</v>
+      </c>
+      <c r="MM9" s="4">
+        <v>37</v>
+      </c>
+      <c r="MN9" s="4">
+        <v>23</v>
+      </c>
+      <c r="MO9" s="4">
+        <v>93</v>
+      </c>
+      <c r="MP9" s="4">
+        <v>23</v>
+      </c>
+      <c r="MQ9" s="4">
+        <v>15</v>
+      </c>
+      <c r="MR9" s="4">
+        <v>35</v>
+      </c>
+      <c r="MS9" s="4">
+        <v>67</v>
+      </c>
+      <c r="MT9" s="4">
+        <v>91</v>
+      </c>
+      <c r="MU9" s="4">
+        <v>25</v>
+      </c>
+      <c r="MV9" s="4">
+        <v>43</v>
+      </c>
+      <c r="MW9" s="4">
+        <v>69</v>
+      </c>
+      <c r="MX9" s="4">
+        <v>55</v>
+      </c>
+      <c r="MY9" s="4">
+        <v>12</v>
+      </c>
+      <c r="MZ9" s="4">
+        <v>86</v>
+      </c>
+      <c r="NA9" s="4">
+        <v>68</v>
+      </c>
+      <c r="NB9" s="4">
+        <v>62</v>
+      </c>
+      <c r="NC9" s="4">
+        <v>59</v>
+      </c>
+      <c r="ND9" s="4">
+        <v>54</v>
+      </c>
+      <c r="NE9" s="4">
+        <v>80</v>
+      </c>
+      <c r="NF9" s="4">
+        <v>10</v>
+      </c>
+      <c r="NG9" s="4">
+        <v>63</v>
+      </c>
+      <c r="NH9" s="4">
+        <v>89</v>
+      </c>
+      <c r="NI9" s="4">
+        <v>74</v>
+      </c>
+      <c r="NJ9" s="4">
+        <v>44</v>
+      </c>
+      <c r="NK9" s="4">
+        <v>53</v>
+      </c>
+      <c r="NL9" s="4">
+        <v>75</v>
+      </c>
+      <c r="NM9" s="4">
+        <v>92</v>
+      </c>
+      <c r="NN9" s="4">
+        <v>61</v>
+      </c>
+      <c r="NO9" s="4">
+        <v>65</v>
+      </c>
+      <c r="NP9" s="4">
+        <v>88</v>
+      </c>
+      <c r="NQ9" s="4">
+        <v>49</v>
+      </c>
+      <c r="NR9" s="4">
+        <v>34</v>
+      </c>
+      <c r="NS9" s="4">
+        <v>82</v>
+      </c>
+      <c r="NT9" s="4">
+        <v>52</v>
+      </c>
+      <c r="NU9" s="4">
+        <v>56</v>
+      </c>
+      <c r="NV9" s="4">
+        <v>2</v>
+      </c>
+      <c r="NW9" s="4">
+        <v>18</v>
+      </c>
+      <c r="NX9" s="4">
+        <v>81</v>
+      </c>
+      <c r="NY9" s="4">
+        <v>30</v>
+      </c>
+      <c r="NZ9" s="4">
+        <v>26</v>
+      </c>
+      <c r="OA9" s="4">
+        <v>27</v>
+      </c>
+      <c r="OB9" s="4">
+        <v>87</v>
+      </c>
+      <c r="OC9" s="4">
+        <v>33</v>
+      </c>
+      <c r="OD9" s="4">
+        <v>64</v>
+      </c>
+      <c r="OE9" s="4">
+        <v>76</v>
+      </c>
+      <c r="OF9" s="4">
+        <v>72</v>
+      </c>
+      <c r="OG9" s="4">
+        <v>29</v>
+      </c>
+      <c r="OH9" s="4">
+        <v>60</v>
+      </c>
+      <c r="OI9" s="4">
+        <v>38</v>
+      </c>
+      <c r="OJ9" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:400" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>71</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1">
+        <v>96</v>
+      </c>
+      <c r="O10" s="1">
+        <v>90</v>
+      </c>
+      <c r="P10" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1">
+        <v>66</v>
+      </c>
+      <c r="S10" s="1">
+        <v>53</v>
+      </c>
+      <c r="T10" s="1">
+        <v>79</v>
+      </c>
+      <c r="U10" s="1">
+        <v>83</v>
+      </c>
+      <c r="V10" s="1">
+        <v>84</v>
+      </c>
+      <c r="W10" s="1">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>61</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>81</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>59</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>41</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>49</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>33</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>98</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>76</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>65</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>60</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>91</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>88</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>22</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>55</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>86</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>53</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>52</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>93</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>63</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>36</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>23</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>95</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>44</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>50</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>9</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>56</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>40</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>70</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>38</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>45</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>69</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>85</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>72</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>89</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>27</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>28</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>20</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>62</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>47</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>90</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>92</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>14</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>25</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>43</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>94</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>21</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>58</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>17</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>35</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>82</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>8</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>48</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>29</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>12</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>73</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>99</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>75</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>42</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>67</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>57</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>37</v>
+      </c>
+      <c r="CV10" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW10" s="2">
+        <v>87</v>
+      </c>
+      <c r="CX10" s="2">
+        <v>1</v>
+      </c>
+      <c r="CY10" s="2">
+        <v>97</v>
+      </c>
+      <c r="CZ10" s="2">
+        <v>64</v>
+      </c>
+      <c r="DA10" s="2">
+        <v>78</v>
+      </c>
+      <c r="DB10" s="2">
+        <v>77</v>
+      </c>
+      <c r="DC10" s="2">
+        <v>19</v>
+      </c>
+      <c r="DD10" s="2">
+        <v>71</v>
+      </c>
+      <c r="DE10" s="2">
+        <v>6</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>95</v>
+      </c>
+      <c r="DG10" s="2">
+        <v>18</v>
+      </c>
+      <c r="DH10" s="2">
+        <v>72</v>
+      </c>
+      <c r="DI10" s="2">
+        <v>39</v>
+      </c>
+      <c r="DJ10" s="2">
+        <v>96</v>
+      </c>
+      <c r="DK10" s="2">
+        <v>90</v>
+      </c>
+      <c r="DL10" s="2">
+        <v>11</v>
+      </c>
+      <c r="DM10" s="2">
+        <v>34</v>
+      </c>
+      <c r="DN10" s="2">
+        <v>66</v>
+      </c>
+      <c r="DO10" s="2">
+        <v>53</v>
+      </c>
+      <c r="DP10" s="2">
+        <v>79</v>
+      </c>
+      <c r="DQ10" s="2">
+        <v>83</v>
+      </c>
+      <c r="DR10" s="2">
+        <v>84</v>
+      </c>
+      <c r="DS10" s="2">
+        <v>26</v>
+      </c>
+      <c r="DT10" s="2">
+        <v>51</v>
+      </c>
+      <c r="DU10" s="2">
+        <v>16</v>
+      </c>
+      <c r="DV10" s="2">
+        <v>54</v>
+      </c>
+      <c r="DW10" s="2">
+        <v>13</v>
+      </c>
+      <c r="DX10" s="2">
+        <v>68</v>
+      </c>
+      <c r="DY10" s="2">
+        <v>42</v>
+      </c>
+      <c r="DZ10" s="2">
+        <v>61</v>
+      </c>
+      <c r="EA10" s="2">
+        <v>81</v>
+      </c>
+      <c r="EB10" s="2">
+        <v>80</v>
+      </c>
+      <c r="EC10" s="2">
+        <v>31</v>
+      </c>
+      <c r="ED10" s="2">
+        <v>59</v>
+      </c>
+      <c r="EE10" s="2">
+        <v>41</v>
+      </c>
+      <c r="EF10" s="2">
+        <v>4</v>
+      </c>
+      <c r="EG10" s="2">
+        <v>49</v>
+      </c>
+      <c r="EH10" s="2">
+        <v>33</v>
+      </c>
+      <c r="EI10" s="2">
+        <v>100</v>
+      </c>
+      <c r="EJ10" s="2">
+        <v>98</v>
+      </c>
+      <c r="EK10" s="2">
+        <v>76</v>
+      </c>
+      <c r="EL10" s="2">
+        <v>2</v>
+      </c>
+      <c r="EM10" s="2">
+        <v>65</v>
+      </c>
+      <c r="EN10" s="2">
+        <v>60</v>
+      </c>
+      <c r="EO10" s="2">
+        <v>91</v>
+      </c>
+      <c r="EP10" s="2">
+        <v>88</v>
+      </c>
+      <c r="EQ10" s="2">
+        <v>22</v>
+      </c>
+      <c r="ER10" s="2">
+        <v>55</v>
+      </c>
+      <c r="ES10" s="2">
+        <v>86</v>
+      </c>
+      <c r="ET10" s="2">
+        <v>53</v>
+      </c>
+      <c r="EU10" s="2">
+        <v>52</v>
+      </c>
+      <c r="EV10" s="2">
+        <v>93</v>
+      </c>
+      <c r="EW10" s="2">
+        <v>63</v>
+      </c>
+      <c r="EX10" s="2">
+        <v>36</v>
+      </c>
+      <c r="EY10" s="2">
+        <v>23</v>
+      </c>
+      <c r="EZ10" s="2">
+        <v>95</v>
+      </c>
+      <c r="FA10" s="2">
+        <v>44</v>
+      </c>
+      <c r="FB10" s="2">
+        <v>50</v>
+      </c>
+      <c r="FC10" s="2">
+        <v>9</v>
+      </c>
+      <c r="FD10" s="2">
+        <v>56</v>
+      </c>
+      <c r="FE10" s="2">
+        <v>40</v>
+      </c>
+      <c r="FF10" s="2">
+        <v>70</v>
+      </c>
+      <c r="FG10" s="2">
+        <v>38</v>
+      </c>
+      <c r="FH10" s="2">
+        <v>45</v>
+      </c>
+      <c r="FI10" s="2">
+        <v>15</v>
+      </c>
+      <c r="FJ10" s="2">
+        <v>69</v>
+      </c>
+      <c r="FK10" s="2">
+        <v>85</v>
+      </c>
+      <c r="FL10" s="2">
+        <v>72</v>
+      </c>
+      <c r="FM10" s="2">
+        <v>89</v>
+      </c>
+      <c r="FN10" s="2">
+        <v>27</v>
+      </c>
+      <c r="FO10" s="2">
+        <v>28</v>
+      </c>
+      <c r="FP10" s="2">
+        <v>20</v>
+      </c>
+      <c r="FQ10" s="2">
+        <v>62</v>
+      </c>
+      <c r="FR10" s="2">
+        <v>2</v>
+      </c>
+      <c r="FS10" s="2">
+        <v>3</v>
+      </c>
+      <c r="FT10" s="2">
+        <v>47</v>
+      </c>
+      <c r="FU10" s="2">
+        <v>90</v>
+      </c>
+      <c r="FV10" s="2">
+        <v>92</v>
+      </c>
+      <c r="FW10" s="2">
+        <v>14</v>
+      </c>
+      <c r="FX10" s="2">
+        <v>7</v>
+      </c>
+      <c r="FY10" s="2">
+        <v>25</v>
+      </c>
+      <c r="FZ10" s="2">
+        <v>43</v>
+      </c>
+      <c r="GA10" s="2">
+        <v>94</v>
+      </c>
+      <c r="GB10" s="2">
+        <v>21</v>
+      </c>
+      <c r="GC10" s="2">
+        <v>58</v>
+      </c>
+      <c r="GD10" s="2">
+        <v>17</v>
+      </c>
+      <c r="GE10" s="2">
+        <v>35</v>
+      </c>
+      <c r="GF10" s="2">
+        <v>82</v>
+      </c>
+      <c r="GG10" s="2">
+        <v>8</v>
+      </c>
+      <c r="GH10" s="2">
+        <v>48</v>
+      </c>
+      <c r="GI10" s="2">
+        <v>29</v>
+      </c>
+      <c r="GJ10" s="2">
+        <v>12</v>
+      </c>
+      <c r="GK10" s="2">
+        <v>73</v>
+      </c>
+      <c r="GL10" s="2">
+        <v>99</v>
+      </c>
+      <c r="GM10" s="2">
+        <v>75</v>
+      </c>
+      <c r="GN10" s="2">
+        <v>42</v>
+      </c>
+      <c r="GO10" s="2">
+        <v>67</v>
+      </c>
+      <c r="GP10" s="2">
+        <v>57</v>
+      </c>
+      <c r="GQ10" s="2">
+        <v>37</v>
+      </c>
+      <c r="GR10" s="2">
+        <v>10</v>
+      </c>
+      <c r="GS10" s="3">
+        <v>87</v>
+      </c>
+      <c r="GT10" s="3">
+        <v>1</v>
+      </c>
+      <c r="GU10" s="3">
+        <v>97</v>
+      </c>
+      <c r="GV10" s="3">
+        <v>64</v>
+      </c>
+      <c r="GW10" s="3">
+        <v>78</v>
+      </c>
+      <c r="GX10" s="3">
+        <v>77</v>
+      </c>
+      <c r="GY10" s="3">
+        <v>19</v>
+      </c>
+      <c r="GZ10" s="3">
+        <v>71</v>
+      </c>
+      <c r="HA10" s="3">
+        <v>6</v>
+      </c>
+      <c r="HB10" s="3">
+        <v>95</v>
+      </c>
+      <c r="HC10" s="3">
+        <v>18</v>
+      </c>
+      <c r="HD10" s="3">
+        <v>72</v>
+      </c>
+      <c r="HE10" s="3">
+        <v>39</v>
+      </c>
+      <c r="HF10" s="3">
+        <v>96</v>
+      </c>
+      <c r="HG10" s="3">
+        <v>90</v>
+      </c>
+      <c r="HH10" s="3">
+        <v>11</v>
+      </c>
+      <c r="HI10" s="3">
+        <v>34</v>
+      </c>
+      <c r="HJ10" s="3">
+        <v>66</v>
+      </c>
+      <c r="HK10" s="3">
+        <v>53</v>
+      </c>
+      <c r="HL10" s="3">
+        <v>79</v>
+      </c>
+      <c r="HM10" s="3">
+        <v>83</v>
+      </c>
+      <c r="HN10" s="3">
+        <v>84</v>
+      </c>
+      <c r="HO10" s="3">
+        <v>26</v>
+      </c>
+      <c r="HP10" s="3">
+        <v>51</v>
+      </c>
+      <c r="HQ10" s="3">
+        <v>16</v>
+      </c>
+      <c r="HR10" s="3">
+        <v>54</v>
+      </c>
+      <c r="HS10" s="3">
+        <v>13</v>
+      </c>
+      <c r="HT10" s="3">
+        <v>68</v>
+      </c>
+      <c r="HU10" s="3">
+        <v>42</v>
+      </c>
+      <c r="HV10" s="3">
+        <v>61</v>
+      </c>
+      <c r="HW10" s="3">
+        <v>81</v>
+      </c>
+      <c r="HX10" s="3">
+        <v>80</v>
+      </c>
+      <c r="HY10" s="3">
+        <v>31</v>
+      </c>
+      <c r="HZ10" s="3">
+        <v>59</v>
+      </c>
+      <c r="IA10" s="3">
+        <v>41</v>
+      </c>
+      <c r="IB10" s="3">
+        <v>4</v>
+      </c>
+      <c r="IC10" s="3">
+        <v>49</v>
+      </c>
+      <c r="ID10" s="3">
+        <v>33</v>
+      </c>
+      <c r="IE10" s="3">
+        <v>100</v>
+      </c>
+      <c r="IF10" s="3">
+        <v>98</v>
+      </c>
+      <c r="IG10" s="3">
+        <v>76</v>
+      </c>
+      <c r="IH10" s="3">
+        <v>2</v>
+      </c>
+      <c r="II10" s="3">
+        <v>65</v>
+      </c>
+      <c r="IJ10" s="3">
+        <v>60</v>
+      </c>
+      <c r="IK10" s="3">
+        <v>91</v>
+      </c>
+      <c r="IL10" s="3">
+        <v>88</v>
+      </c>
+      <c r="IM10" s="3">
+        <v>22</v>
+      </c>
+      <c r="IN10" s="3">
+        <v>55</v>
+      </c>
+      <c r="IO10" s="3">
+        <v>86</v>
+      </c>
+      <c r="IP10" s="3">
+        <v>53</v>
+      </c>
+      <c r="IQ10" s="3">
+        <v>52</v>
+      </c>
+      <c r="IR10" s="3">
+        <v>93</v>
+      </c>
+      <c r="IS10" s="3">
+        <v>63</v>
+      </c>
+      <c r="IT10" s="3">
+        <v>36</v>
+      </c>
+      <c r="IU10" s="3">
+        <v>23</v>
+      </c>
+      <c r="IV10" s="3">
+        <v>95</v>
+      </c>
+      <c r="IW10" s="3">
+        <v>44</v>
+      </c>
+      <c r="IX10" s="3">
+        <v>50</v>
+      </c>
+      <c r="IY10" s="3">
+        <v>9</v>
+      </c>
+      <c r="IZ10" s="3">
+        <v>56</v>
+      </c>
+      <c r="JA10" s="3">
+        <v>40</v>
+      </c>
+      <c r="JB10" s="3">
+        <v>70</v>
+      </c>
+      <c r="JC10" s="3">
+        <v>38</v>
+      </c>
+      <c r="JD10" s="3">
+        <v>45</v>
+      </c>
+      <c r="JE10" s="3">
+        <v>15</v>
+      </c>
+      <c r="JF10" s="3">
+        <v>69</v>
+      </c>
+      <c r="JG10" s="3">
+        <v>85</v>
+      </c>
+      <c r="JH10" s="3">
+        <v>72</v>
+      </c>
+      <c r="JI10" s="3">
+        <v>89</v>
+      </c>
+      <c r="JJ10" s="3">
+        <v>27</v>
+      </c>
+      <c r="JK10" s="3">
+        <v>28</v>
+      </c>
+      <c r="JL10" s="3">
+        <v>20</v>
+      </c>
+      <c r="JM10" s="3">
+        <v>62</v>
+      </c>
+      <c r="JN10" s="3">
+        <v>2</v>
+      </c>
+      <c r="JO10" s="3">
+        <v>3</v>
+      </c>
+      <c r="JP10" s="3">
+        <v>47</v>
+      </c>
+      <c r="JQ10" s="3">
+        <v>90</v>
+      </c>
+      <c r="JR10" s="3">
+        <v>92</v>
+      </c>
+      <c r="JS10" s="3">
+        <v>14</v>
+      </c>
+      <c r="JT10" s="3">
+        <v>7</v>
+      </c>
+      <c r="JU10" s="3">
+        <v>25</v>
+      </c>
+      <c r="JV10" s="3">
+        <v>43</v>
+      </c>
+      <c r="JW10" s="3">
+        <v>94</v>
+      </c>
+      <c r="JX10" s="3">
+        <v>21</v>
+      </c>
+      <c r="JY10" s="3">
+        <v>58</v>
+      </c>
+      <c r="JZ10" s="3">
+        <v>17</v>
+      </c>
+      <c r="KA10" s="3">
+        <v>35</v>
+      </c>
+      <c r="KB10" s="3">
+        <v>82</v>
+      </c>
+      <c r="KC10" s="3">
+        <v>8</v>
+      </c>
+      <c r="KD10" s="3">
+        <v>48</v>
+      </c>
+      <c r="KE10" s="3">
+        <v>29</v>
+      </c>
+      <c r="KF10" s="3">
+        <v>12</v>
+      </c>
+      <c r="KG10" s="3">
+        <v>73</v>
+      </c>
+      <c r="KH10" s="3">
+        <v>99</v>
+      </c>
+      <c r="KI10" s="3">
+        <v>75</v>
+      </c>
+      <c r="KJ10" s="3">
+        <v>42</v>
+      </c>
+      <c r="KK10" s="3">
+        <v>67</v>
+      </c>
+      <c r="KL10" s="3">
+        <v>57</v>
+      </c>
+      <c r="KM10" s="3">
+        <v>37</v>
+      </c>
+      <c r="KN10" s="3">
+        <v>10</v>
+      </c>
+      <c r="KO10" s="4">
+        <v>87</v>
+      </c>
+      <c r="KP10" s="4">
+        <v>1</v>
+      </c>
+      <c r="KQ10" s="4">
+        <v>97</v>
+      </c>
+      <c r="KR10" s="4">
+        <v>64</v>
+      </c>
+      <c r="KS10" s="4">
+        <v>78</v>
+      </c>
+      <c r="KT10" s="4">
+        <v>77</v>
+      </c>
+      <c r="KU10" s="4">
+        <v>19</v>
+      </c>
+      <c r="KV10" s="4">
+        <v>71</v>
+      </c>
+      <c r="KW10" s="4">
+        <v>6</v>
+      </c>
+      <c r="KX10" s="4">
+        <v>95</v>
+      </c>
+      <c r="KY10" s="4">
+        <v>18</v>
+      </c>
+      <c r="KZ10" s="4">
+        <v>72</v>
+      </c>
+      <c r="LA10" s="4">
+        <v>39</v>
+      </c>
+      <c r="LB10" s="4">
+        <v>96</v>
+      </c>
+      <c r="LC10" s="4">
+        <v>90</v>
+      </c>
+      <c r="LD10" s="4">
+        <v>11</v>
+      </c>
+      <c r="LE10" s="4">
+        <v>34</v>
+      </c>
+      <c r="LF10" s="4">
+        <v>66</v>
+      </c>
+      <c r="LG10" s="4">
+        <v>53</v>
+      </c>
+      <c r="LH10" s="4">
+        <v>79</v>
+      </c>
+      <c r="LI10" s="4">
+        <v>83</v>
+      </c>
+      <c r="LJ10" s="4">
+        <v>84</v>
+      </c>
+      <c r="LK10" s="4">
+        <v>26</v>
+      </c>
+      <c r="LL10" s="4">
+        <v>51</v>
+      </c>
+      <c r="LM10" s="4">
+        <v>16</v>
+      </c>
+      <c r="LN10" s="4">
+        <v>54</v>
+      </c>
+      <c r="LO10" s="4">
+        <v>13</v>
+      </c>
+      <c r="LP10" s="4">
+        <v>68</v>
+      </c>
+      <c r="LQ10" s="4">
+        <v>42</v>
+      </c>
+      <c r="LR10" s="4">
+        <v>61</v>
+      </c>
+      <c r="LS10" s="4">
+        <v>81</v>
+      </c>
+      <c r="LT10" s="4">
+        <v>80</v>
+      </c>
+      <c r="LU10" s="4">
+        <v>31</v>
+      </c>
+      <c r="LV10" s="4">
+        <v>59</v>
+      </c>
+      <c r="LW10" s="4">
+        <v>41</v>
+      </c>
+      <c r="LX10" s="4">
+        <v>4</v>
+      </c>
+      <c r="LY10" s="4">
+        <v>49</v>
+      </c>
+      <c r="LZ10" s="4">
+        <v>33</v>
+      </c>
+      <c r="MA10" s="4">
+        <v>100</v>
+      </c>
+      <c r="MB10" s="4">
+        <v>98</v>
+      </c>
+      <c r="MC10" s="4">
+        <v>76</v>
+      </c>
+      <c r="MD10" s="4">
+        <v>2</v>
+      </c>
+      <c r="ME10" s="4">
+        <v>65</v>
+      </c>
+      <c r="MF10" s="4">
+        <v>60</v>
+      </c>
+      <c r="MG10" s="4">
+        <v>91</v>
+      </c>
+      <c r="MH10" s="4">
+        <v>88</v>
+      </c>
+      <c r="MI10" s="4">
+        <v>22</v>
+      </c>
+      <c r="MJ10" s="4">
+        <v>55</v>
+      </c>
+      <c r="MK10" s="4">
+        <v>86</v>
+      </c>
+      <c r="ML10" s="4">
+        <v>53</v>
+      </c>
+      <c r="MM10" s="4">
+        <v>52</v>
+      </c>
+      <c r="MN10" s="4">
+        <v>93</v>
+      </c>
+      <c r="MO10" s="4">
+        <v>63</v>
+      </c>
+      <c r="MP10" s="4">
+        <v>36</v>
+      </c>
+      <c r="MQ10" s="4">
+        <v>23</v>
+      </c>
+      <c r="MR10" s="4">
+        <v>95</v>
+      </c>
+      <c r="MS10" s="4">
+        <v>44</v>
+      </c>
+      <c r="MT10" s="4">
+        <v>50</v>
+      </c>
+      <c r="MU10" s="4">
+        <v>9</v>
+      </c>
+      <c r="MV10" s="4">
+        <v>56</v>
+      </c>
+      <c r="MW10" s="4">
+        <v>40</v>
+      </c>
+      <c r="MX10" s="4">
+        <v>70</v>
+      </c>
+      <c r="MY10" s="4">
+        <v>38</v>
+      </c>
+      <c r="MZ10" s="4">
+        <v>45</v>
+      </c>
+      <c r="NA10" s="4">
+        <v>15</v>
+      </c>
+      <c r="NB10" s="4">
+        <v>69</v>
+      </c>
+      <c r="NC10" s="4">
+        <v>85</v>
+      </c>
+      <c r="ND10" s="4">
+        <v>72</v>
+      </c>
+      <c r="NE10" s="4">
+        <v>89</v>
+      </c>
+      <c r="NF10" s="4">
+        <v>27</v>
+      </c>
+      <c r="NG10" s="4">
+        <v>28</v>
+      </c>
+      <c r="NH10" s="4">
+        <v>20</v>
+      </c>
+      <c r="NI10" s="4">
+        <v>62</v>
+      </c>
+      <c r="NJ10" s="4">
+        <v>2</v>
+      </c>
+      <c r="NK10" s="4">
+        <v>3</v>
+      </c>
+      <c r="NL10" s="4">
+        <v>47</v>
+      </c>
+      <c r="NM10" s="4">
+        <v>90</v>
+      </c>
+      <c r="NN10" s="4">
+        <v>92</v>
+      </c>
+      <c r="NO10" s="4">
+        <v>14</v>
+      </c>
+      <c r="NP10" s="4">
+        <v>7</v>
+      </c>
+      <c r="NQ10" s="4">
+        <v>25</v>
+      </c>
+      <c r="NR10" s="4">
+        <v>43</v>
+      </c>
+      <c r="NS10" s="4">
+        <v>94</v>
+      </c>
+      <c r="NT10" s="4">
+        <v>21</v>
+      </c>
+      <c r="NU10" s="4">
+        <v>58</v>
+      </c>
+      <c r="NV10" s="4">
+        <v>17</v>
+      </c>
+      <c r="NW10" s="4">
+        <v>35</v>
+      </c>
+      <c r="NX10" s="4">
+        <v>82</v>
+      </c>
+      <c r="NY10" s="4">
+        <v>8</v>
+      </c>
+      <c r="NZ10" s="4">
+        <v>48</v>
+      </c>
+      <c r="OA10" s="4">
+        <v>29</v>
+      </c>
+      <c r="OB10" s="4">
+        <v>12</v>
+      </c>
+      <c r="OC10" s="4">
+        <v>73</v>
+      </c>
+      <c r="OD10" s="4">
+        <v>99</v>
+      </c>
+      <c r="OE10" s="4">
+        <v>75</v>
+      </c>
+      <c r="OF10" s="4">
+        <v>42</v>
+      </c>
+      <c r="OG10" s="4">
+        <v>67</v>
+      </c>
+      <c r="OH10" s="4">
+        <v>57</v>
+      </c>
+      <c r="OI10" s="4">
+        <v>37</v>
+      </c>
+      <c r="OJ10" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
